--- a/data/trans_dic/P20D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,76</t>
+          <t>0,0; 73,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,31</t>
+          <t>0,0; 52,21</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,01; 92,55</t>
+          <t>42,76; 92,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,78; 88,79</t>
+          <t>26,0; 90,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,53; 88,97</t>
+          <t>46,05; 87,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,8; 100,0</t>
+          <t>57,98; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,59</t>
+          <t>0,0; 47,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,64; 78,4</t>
+          <t>39,39; 77,15</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,03; 100,0</t>
+          <t>40,4; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 88,54</t>
+          <t>14,08; 87,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 83,22</t>
+          <t>36,83; 82,88</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,76; 89,94</t>
+          <t>19,54; 90,18</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,72; 92,16</t>
+          <t>34,32; 92,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,81; 91,26</t>
+          <t>0,0; 91,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,39; 84,17</t>
+          <t>39,72; 84,74</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,17; 86,62</t>
+          <t>19,86; 86,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,81; 55,51</t>
+          <t>17,51; 55,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,7; 59,91</t>
+          <t>24,61; 57,99</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,64; 79,28</t>
+          <t>34,36; 79,95</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>59,92; 81,45</t>
+          <t>59,78; 82,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>27,32; 54,42</t>
+          <t>26,94; 51,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>47,94; 64,41</t>
+          <t>47,6; 63,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Provincia-trans_dic.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,63</t>
+          <t>0,0; 74,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,21</t>
+          <t>0,0; 50,22</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>60,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,03%</t>
+          <t>69,56%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,76; 92,26</t>
+          <t>42,2; 92,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 90,39</t>
+          <t>25,18; 90,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,05; 87,93</t>
+          <t>45,43; 87,89</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,68%</t>
+          <t>60,35%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,98; 100,0</t>
+          <t>57,7; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,65</t>
+          <t>0,0; 48,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,39; 77,15</t>
+          <t>40,33; 77,66</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>60,97%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,4; 100,0</t>
+          <t>40,41; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,08; 87,1</t>
+          <t>13,54; 86,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,83; 82,88</t>
+          <t>36,56; 81,3</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>79,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>63,83%</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,54; 90,18</t>
+          <t>19,43; 89,98</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>67,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>58,91%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>64,87%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,32; 92,24</t>
+          <t>34,9; 92,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,77</t>
+          <t>0,0; 91,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,72; 84,74</t>
+          <t>39,6; 84,86</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>54,68%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>41,94%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,86; 86,42</t>
+          <t>20,92; 86,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,51; 55,98</t>
+          <t>18,03; 55,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,61; 57,99</t>
+          <t>24,87; 58,32</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>75,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>58,05%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,07; 98,0</t>
+          <t>39,87; 97,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,32</t>
+          <t>0,0; 75,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,36; 79,95</t>
+          <t>34,45; 79,94</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>56,27%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>59,78; 82,55</t>
+          <t>59,12; 82,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>26,94; 51,36</t>
+          <t>26,73; 50,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>47,6; 63,66</t>
+          <t>47,38; 63,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -584,19 +585,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,42</t>
+          <t>0,0; 75,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,22</t>
+          <t>0,0; 45,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,2; 92,24</t>
+          <t>36,57; 92,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,18; 90,15</t>
+          <t>25,7; 89,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,43; 87,89</t>
+          <t>46,83; 88,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,7; 100,0</t>
+          <t>56,27; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,06</t>
+          <t>0,0; 48,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,33; 77,66</t>
+          <t>39,84; 77,43</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,41; 100,0</t>
+          <t>40,55; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 86,1</t>
+          <t>12,0; 88,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,56; 81,3</t>
+          <t>36,78; 82,92</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>29,02; 100,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,43; 89,98</t>
+          <t>29,3; 90,78</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,9; 92,25</t>
+          <t>38,84; 92,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,85</t>
+          <t>14,68; 91,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,6; 84,86</t>
+          <t>39,32; 83,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,92; 86,86</t>
+          <t>19,12; 87,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,03; 55,66</t>
+          <t>17,0; 53,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,87; 58,32</t>
+          <t>26,39; 58,48</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,87; 97,73</t>
+          <t>41,76; 97,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,2</t>
+          <t>0,0; 71,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,45; 79,94</t>
+          <t>33,34; 80,04</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>59,12; 82,22</t>
+          <t>58,54; 80,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>26,73; 50,81</t>
+          <t>28,26; 53,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>47,38; 63,52</t>
+          <t>47,82; 64,54</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que durante el ingreso estuvo acompañada por una mujer casi todo el tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1407</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11104</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14811</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5560; 14021</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1565; 5424</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9972; 18923</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9700</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10789</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6225; 11062</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3315</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7121; 13841</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6594</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11586</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3513; 8663</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1241; 9120</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6990; 15758</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2179</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>662; 2283</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1130</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1000; 3098</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6165</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2416; 5753</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>482; 2998</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3737; 7917</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4907</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5223</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10130</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1716; 7877</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2581; 8084</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6375; 14126</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5610</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6804</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3090; 7235</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3075</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3909; 9382</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>43963</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>19132</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>63094</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>36456; 50242</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>14084; 26495</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>53611; 72362</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>